--- a/Kitap1.xlsx
+++ b/Kitap1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melike gezer\OneDrive\Masaüstü\gereksiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melike gezer\newfile\yazilimcukurova-road-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC26DBA-6088-43BE-AB1B-37B2DFF42E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C2C235-EB4D-47DC-814B-1D4E1C639698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C804AA6-15CF-46F3-8C70-C9AFFB43213C}"/>
+    <workbookView xWindow="4545" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{3C804AA6-15CF-46F3-8C70-C9AFFB43213C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>ögrno</t>
+  </si>
+  <si>
+    <t>isim</t>
+  </si>
+  <si>
+    <t>melih</t>
+  </si>
+  <si>
+    <t>berk</t>
+  </si>
+  <si>
+    <t>ilayda</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,14 +403,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A729691F-7201-4050-A65A-6D0F6994A6E7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2021688024</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2021688001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2022688035</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -573,18 +629,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,6 +663,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B419B7B3-BC8D-4897-9A08-8E98BF90ED3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{208A54F3-AF93-498D-8BB7-DE4D82E379FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ad7e6d29-b046-4036-b3a1-e154f688c52b"/>
@@ -621,12 +685,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B419B7B3-BC8D-4897-9A08-8E98BF90ED3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Kitap1.xlsx
+++ b/Kitap1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melike gezer\newfile\yazilimcukurova-road-maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C2C235-EB4D-47DC-814B-1D4E1C639698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772226CA-1B46-4AF1-841F-A2B51AD81CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4545" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{3C804AA6-15CF-46F3-8C70-C9AFFB43213C}"/>
   </bookViews>
@@ -36,23 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>ögrno</t>
-  </si>
-  <si>
-    <t>isim</t>
-  </si>
-  <si>
-    <t>melih</t>
-  </si>
-  <si>
-    <t>berk</t>
-  </si>
-  <si>
-    <t>ilayda</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A729691F-7201-4050-A65A-6D0F6994A6E7}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -413,45 +397,21 @@
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2021688024</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2021688001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2022688035</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x01010024B12B83857E974BB14D60BB285F83FB" ma:contentTypeVersion="6" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="8cb845558dc12f5407ba6e4f406378ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ad7e6d29-b046-4036-b3a1-e154f688c52b" xmlns:ns4="a394e288-287c-4ae2-8de8-198a35ded269" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="613e3651fde1bdc41785f386f6c207dc" ns3:_="" ns4:_="">
     <xsd:import namespace="ad7e6d29-b046-4036-b3a1-e154f688c52b"/>
@@ -628,15 +588,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -644,6 +595,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B419B7B3-BC8D-4897-9A08-8E98BF90ED3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232C323A-1578-44CF-8758-CAFFF3228CD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -662,14 +621,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B419B7B3-BC8D-4897-9A08-8E98BF90ED3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{208A54F3-AF93-498D-8BB7-DE4D82E379FE}">
   <ds:schemaRefs>
